--- a/biology/Médecine/Os_frontal/Os_frontal.xlsx
+++ b/biology/Médecine/Os_frontal/Os_frontal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os frontal est un os impair et médian, plat, galbé, partiellement pneumatisé avec les sinus frontaux et participant à la formation du crâne et du massif facial.
 Il est constitué de deux parties :
@@ -518,10 +530,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Face antérieure
-Elle est séparée en deux parties par une crête saillante appelée crête orbito-nasale : une partie convexe supérieure dite portion frontale et une partie inférieure horizontale, la portion orbito-nasale.
-Crête orbito-nasale
-Elle se partage entre :
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est séparée en deux parties par une crête saillante appelée crête orbito-nasale : une partie convexe supérieure dite portion frontale et une partie inférieure horizontale, la portion orbito-nasale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Crête orbito-nasale</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se partage entre :
 au centre, une échancrure en forme de V renversé: l'échancrure nasale qui s'articule :
 au centre avec les os nasaux,
 en dehors avec la branche montante de l'os maxillaire.
@@ -529,8 +585,47 @@
 un processus latéral oblique en bas et en dehors appelé processus zygomatique, qui se raccorde avec l'angle supérieur de l'os zygomatique
 un processus médial plus large, plus mince et qui descend plus bas que le latéral s'articule avec l'os lacrymal.
 L'arcade orbitaire présente à l'union de son tiers interne et deux tiers externes une échancrure: l'incisure supra-orbitaire, celle-ci pouvant être refermée formant ainsi un foramen supra-orbitaire.
-Portion frontale
-Portion sous cutanée, convexe et lisse, elle présente :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Portion frontale</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portion sous cutanée, convexe et lisse, elle présente :
 sur la ligne médiane et chez le sujet jeune, une ligne de suture qui généralement s'estompe avec l'âge. En moyenne vers l'âge de 6 ans, elle ne reste visible que dans la partie basse de l'os et forme la suture métopique ou suture frontale. Au bas de cette ligne, se trouve une bosse : la glabelle,
 latéralement, on trouve
 de haut en bas
@@ -539,52 +634,197 @@
 une saillie arquée plus prononcée en dedans qu'en dehors et qui détermine le relief des sourcils : l'arcade sourcilière
 à l'extérieur, séparée de la zone précédente par une crête saillante oblique en haut et en dehors au-dessus du processus zygomatique : la ligne temporale de l’os frontal (ou crête latérale du frontal ou crête temporale du frontal), se trouve une surface triangulaire déprimée qui regarde latéralement et qui participe à la partie antérieure de la fosse temporale.
 Le point de Kocher, repère chirurgical, s'y trouve.
-Partie nasale
-Elle est occupée au centre par une large échancrure rectangulaire qui occupe pratiquement toute la profondeur de la portion: l'incisure ethmoïdale. Elle se prolonge en avant, sur la ligne médiane, par l'épine nasale qui s'articule par une surface rugueuse avec les os nasaux en avant et qui présente en arrière deux gouttières qui participent à la voûte des fosses nasales séparées par une crête qui s'articule avec la lame perpendiculaire de l'os ethmoïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Partie nasale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est occupée au centre par une large échancrure rectangulaire qui occupe pratiquement toute la profondeur de la portion: l'incisure ethmoïdale. Elle se prolonge en avant, sur la ligne médiane, par l'épine nasale qui s'articule par une surface rugueuse avec les os nasaux en avant et qui présente en arrière deux gouttières qui participent à la voûte des fosses nasales séparées par une crête qui s'articule avec la lame perpendiculaire de l'os ethmoïde.
 A l'avant elle forme le bord nasal de l'os frontal, échancré en forme de V ouvert en bas. Il s'articule en dedans avec les os nasaux par la suture fronto-nasale et en dehors avec le processus frontal du maxillaire par la suture fronto-maxillaire.
-Face postérieure
-La face postérieure ou endocrânienne comporte une partie verticale concave répondant aux lobes frontaux du cerveau. On retrouve sur la ligne médiane, le foramen caecum et la crête frontale qui bifurque pour former la sillon du sinus sagittal supérieur. Latéralement, on décrit les fosses frontales, les sillons vasculaires et les dépressions correspondant aux empreintes de circonvolutions cérébrales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Face postérieure</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face postérieure ou endocrânienne comporte une partie verticale concave répondant aux lobes frontaux du cerveau. On retrouve sur la ligne médiane, le foramen caecum et la crête frontale qui bifurque pour former la sillon du sinus sagittal supérieur. Latéralement, on décrit les fosses frontales, les sillons vasculaires et les dépressions correspondant aux empreintes de circonvolutions cérébrales.
 La partie horizontale ou orbito-nasale de l'os frontal présente l'échancrure ou incisure ethmoïdale du frontal et les bosses orbitales.
-Bord
-Le bord qui limite l'os frontal est circonférenciel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bord</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le bord qui limite l'os frontal est circonférenciel.
 Sa partie supérieure (ou bord squameux ou bord pariétal) s'articule avec le bord antérieur de l'os pariétal formant la suture coronale.
 Sa partie inférieure (ou bord orbito-nasal) contourne en bas l'incisure ethmoïdale. De la zone médiale vers la zone latérale il s'articule :
 avec l'os nasal formant la suture fronto-nasale,
 avec la processus frontal du maxillaire formant la suture fronto-maxillaire,
 avec l'os lacrymal formant la suture fronto-lacrymale,
 avec l'os ethmoïde formant la suture fronto-ethmoïdale,
-avec les grandes ailes et les petites ailes de l'os sphénoïde.
-Sinus frontaux
-Les sinus de l'os frontal sont les deux cavités aériennes situées dans l'épaisseur de l'os en bas de l'écaille et derrière les arcades sourcilières. Ils sont séparés par un septum osseux sagittal et communiquent via l'orifice du sinus frontal avec le méat nasal moyen.
+avec les grandes ailes et les petites ailes de l'os sphénoïde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sinus frontaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sinus de l'os frontal sont les deux cavités aériennes situées dans l'épaisseur de l'os en bas de l'écaille et derrière les arcades sourcilières. Ils sont séparés par un septum osseux sagittal et communiquent via l'orifice du sinus frontal avec le méat nasal moyen.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Os_frontal</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os frontal est d'origine membraneuse et cartilagineuse.
 Un premier point d'ossification d'origine cartilagineuse apparaît au niveau de l'épine nasale.
@@ -593,34 +833,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Os_frontal</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Os_frontal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_frontal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez la plupart des vertébrés, l'os frontal est pair. On le trouve généralement à la partie supérieure de la tête, entre les yeux.
-Chez de nombreux animaux autres que les mammifères, il ne participe pas à la constitution de la cavité orbitaire. Chez les reptiles, les poissons osseux et les amphibiens, il est souvent séparé de l'orbite par un ou deux os supplémentaires qu'on ne trouve pas chez les mammifères : les préfrontaux et postfrontaux, qui forment le bord supérieur des orbites et qui se trouvent de chaque côté des os frontaux[1].
+Chez de nombreux animaux autres que les mammifères, il ne participe pas à la constitution de la cavité orbitaire. Chez les reptiles, les poissons osseux et les amphibiens, il est souvent séparé de l'orbite par un ou deux os supplémentaires qu'on ne trouve pas chez les mammifères : les préfrontaux et postfrontaux, qui forment le bord supérieur des orbites et qui se trouvent de chaque côté des os frontaux.
 </t>
         </is>
       </c>
